--- a/static/format_import_uic.xlsx
+++ b/static/format_import_uic.xlsx
@@ -1,75 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C4F1434D-9A0D-8A44-879A-D2BDAB90763E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88D8898-95E9-4AB3-9D71-F0CFEA41EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="8960" windowWidth="28040" windowHeight="17440" xr2:uid="{DD4A71BF-2B57-6540-9B8E-A6B552F3C9B6}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="18" uniqueCount="11">
-  <si>
-    <t>no</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+  <si>
+    <t>no polisi</t>
+  </si>
+  <si>
+    <t>tipe kendaraan</t>
+  </si>
+  <si>
+    <t>no notif</t>
+  </si>
+  <si>
+    <t>no customer</t>
+  </si>
+  <si>
+    <t>nama customer</t>
+  </si>
+  <si>
+    <t>no kontrak</t>
+  </si>
+  <si>
+    <t>mulai</t>
+  </si>
+  <si>
+    <t>selesai</t>
+  </si>
+  <si>
+    <t>bco</t>
   </si>
   <si>
     <t>nomor polisi</t>
   </si>
   <si>
-    <t>tipe kendaraan</t>
-  </si>
-  <si>
-    <t>no notif</t>
-  </si>
-  <si>
-    <t>no customer</t>
-  </si>
-  <si>
-    <t>nama customer</t>
-  </si>
-  <si>
-    <t>no kontrak</t>
-  </si>
-  <si>
-    <t>mulai</t>
-  </si>
-  <si>
-    <t>selesai</t>
-  </si>
-  <si>
-    <t>bco</t>
-  </si>
-  <si>
-    <t>no polisi</t>
+    <t>nomor polisi 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -86,8 +85,8 @@
   </fills>
   <borders count="1">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -104,7 +103,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -117,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -270,25 +269,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -296,25 +295,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -327,21 +326,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -355,7 +354,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -367,32 +366,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -412,21 +411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D132AAB4-7BAE-8E4F-9685-F218267B8F14}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -449,13 +451,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -472,17 +471,43 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="d">
-        <v>2022-01-01</v>
-      </c>
-      <c r="I2" s="1" t="d">
-        <v>2023-01-01</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
+      <c r="G2" s="1">
+        <v>44562</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44562</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44927</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
